--- a/example.xlsx
+++ b/example.xlsx
@@ -450,7 +450,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>hi</t>
+          <t xml:space="preserve">technical </t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
